--- a/21-Spreads4Tests/Solenoid.xlsx
+++ b/21-Spreads4Tests/Solenoid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARA_Beamline/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF851D-8E99-8049-9A09-8BFF6507A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65104EE-DEDF-E04D-959B-3573494BEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="900" windowWidth="23820" windowHeight="15060" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/21-Spreads4Tests/Solenoid.xlsx
+++ b/21-Spreads4Tests/Solenoid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65104EE-DEDF-E04D-959B-3573494BEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D2B3F-97FB-6243-B5DB-045684F502BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="900" windowWidth="23820" windowHeight="15060" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/21-Spreads4Tests/Solenoid.xlsx
+++ b/21-Spreads4Tests/Solenoid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D2B3F-97FB-6243-B5DB-045684F502BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35ADED-EAEA-004E-8203-7AD480B9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="900" windowWidth="23820" windowHeight="15060" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H24" sqref="H24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,21 +1508,21 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="23">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="23">
         <f t="array" ref="E24:E27">MMULT(B19:E22,B24:B27)</f>
-        <v>0.22827333781979081</v>
+        <v>2.1647418410607036E-2</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="23">
         <f>B$24*B19+B$25*C19+B$26*D19+B$27*E19</f>
-        <v>0.22827333781979081</v>
+        <v>2.1647418410607036E-2</v>
       </c>
       <c r="K24" s="41">
         <f>E24-H24</f>
@@ -1534,11 +1534,11 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="24">
-        <v>-0.16657258415124282</v>
+        <v>-3.3490533158663523E-2</v>
       </c>
       <c r="H25" s="24">
         <f>B$24*B20+B$25*C20+B$26*D20+B$27*E20</f>
-        <v>-0.16657258415124282</v>
+        <v>-3.3490533158663523E-2</v>
       </c>
       <c r="K25" s="42">
         <f>E25-H25</f>
@@ -1550,14 +1550,14 @@
         <v>6</v>
       </c>
       <c r="B26" s="24">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E26" s="24">
-        <v>-0.54739631048262893</v>
+        <v>-0.22388770395486457</v>
       </c>
       <c r="H26" s="24">
         <f>B$24*B21+B$25*C21+B$26*D21+B$27*E21</f>
-        <v>-0.54739631048262893</v>
+        <v>-0.22388770395486457</v>
       </c>
       <c r="K26" s="42">
         <f>E26-H26</f>
@@ -1569,11 +1569,11 @@
         <v>-0.2</v>
       </c>
       <c r="E27" s="25">
-        <v>9.2788839004356083E-2</v>
+        <v>-0.11557412433330472</v>
       </c>
       <c r="H27" s="25">
         <f>B$24*B22+B$25*C22+B$26*D22+B$27*E22</f>
-        <v>9.2788839004356083E-2</v>
+        <v>-0.11557412433330472</v>
       </c>
       <c r="K27" s="43">
         <f>E27-H27</f>

--- a/21-Spreads4Tests/Solenoid.xlsx
+++ b/21-Spreads4Tests/Solenoid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2020298123961/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B35ADED-EAEA-004E-8203-7AD480B9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0B35ADED-EAEA-004E-8203-7AD480B9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC035A1-1F26-A74A-B3E8-EBC402E6F5EF}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="900" windowWidth="23820" windowHeight="15060" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -873,9 +873,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -913,7 +913,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1019,7 +1019,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1161,7 +1161,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H27"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/21-Spreads4Tests/Solenoid.xlsx
+++ b/21-Spreads4Tests/Solenoid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2020298123961/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0B35ADED-EAEA-004E-8203-7AD480B9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC035A1-1F26-A74A-B3E8-EBC402E6F5EF}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{0B35ADED-EAEA-004E-8203-7AD480B9D2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF13CE39-99EA-8F40-BE9A-204C13431F62}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="900" windowWidth="23820" windowHeight="15060" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>MeV</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>sin(kl)cos(kl)</t>
+  </si>
+  <si>
+    <t>2.*ks</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>0</v>
@@ -1242,7 +1245,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>0</v>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="B4" s="28">
         <f>B10+B3</f>
-        <v>958.27208815999995</v>
+        <v>953.27208815999995</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="H4" s="28">
         <f>B10+H3</f>
-        <v>958.27208815999995</v>
+        <v>953.27208815999995</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>0</v>
@@ -1288,7 +1291,7 @@
       </c>
       <c r="B5" s="28">
         <f>SQRT(B4^2 - B10^2)</f>
-        <v>194.75852619692921</v>
+        <v>168.44335144136713</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="E5">
         <f>E4/(2*B6)</f>
-        <v>1.0775123672265128</v>
+        <v>1.2458474543772515</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>5</v>
@@ -1308,7 +1311,7 @@
       </c>
       <c r="H5" s="28">
         <f>SQRT(H4^2 -B10^ 2)</f>
-        <v>194.75852619692921</v>
+        <v>168.44335144136713</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>0</v>
@@ -1320,10 +1323,16 @@
       </c>
       <c r="B6">
         <f>B5*H12/1000</f>
-        <v>0.64964451573004278</v>
+        <v>0.56186654115683965</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <f>2*E5</f>
+        <v>2.4916949087545031</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="H6">
         <f>H5/B10</f>
-        <v>0.20757148022900346</v>
+        <v>0.17952505842062641</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -1410,7 +1419,7 @@
       </c>
       <c r="D15" s="5">
         <f>SIN(E5*E3)</f>
-        <v>0.51306876211076036</v>
+        <v>0.58341223232414219</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1419,7 +1428,7 @@
       </c>
       <c r="D16" s="7">
         <f>COS(E5*E3)</f>
-        <v>0.85834750849882002</v>
+        <v>0.81217619219881165</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1428,43 +1437,43 @@
       </c>
       <c r="D17" s="10">
         <f>D15*D16</f>
-        <v>0.44039129364634494</v>
+        <v>0.47383352533123024</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="13">
         <f>D16^2</f>
-        <v>0.73676044534613194</v>
+        <v>0.65963016717456102</v>
       </c>
       <c r="C19" s="14">
         <f>D17/E5</f>
-        <v>0.40871112670372406</v>
+        <v>0.38033029137430019</v>
       </c>
       <c r="D19" s="14">
         <f>D17</f>
-        <v>0.44039129364634494</v>
+        <v>0.47383352533123024</v>
       </c>
       <c r="E19" s="15">
         <f>(D15^2)/E5</f>
-        <v>0.24430304714872034</v>
+        <v>0.27320345811965874</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <f>-E5*D17</f>
-        <v>-0.47452706532281946</v>
+        <v>-0.59032429133251207</v>
       </c>
       <c r="C20" s="17">
         <f>D16^2</f>
-        <v>0.73676044534613194</v>
+        <v>0.65963016717456102</v>
       </c>
       <c r="D20" s="17">
         <f>-E5*(D15^2)</f>
-        <v>-0.2836438756827423</v>
+        <v>-0.4240488897723837</v>
       </c>
       <c r="E20" s="18">
         <f>D17</f>
-        <v>0.44039129364634494</v>
+        <v>0.47383352533123024</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1473,37 +1482,37 @@
       </c>
       <c r="B21" s="16">
         <f>-D17</f>
-        <v>-0.44039129364634494</v>
+        <v>-0.47383352533123024</v>
       </c>
       <c r="C21" s="17">
         <f>-(D15^2)/E5</f>
-        <v>-0.24430304714872034</v>
+        <v>-0.27320345811965874</v>
       </c>
       <c r="D21" s="17">
         <f>D16^2</f>
-        <v>0.73676044534613194</v>
+        <v>0.65963016717456102</v>
       </c>
       <c r="E21" s="18">
         <f>D17/E5</f>
-        <v>0.40871112670372406</v>
+        <v>0.38033029137430019</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="19">
         <f>E5*D15^2</f>
-        <v>0.2836438756827423</v>
+        <v>0.4240488897723837</v>
       </c>
       <c r="C22" s="20">
         <f>-D17</f>
-        <v>-0.44039129364634494</v>
+        <v>-0.47383352533123024</v>
       </c>
       <c r="D22" s="20">
         <f>-E5*D17</f>
-        <v>-0.47452706532281946</v>
+        <v>-0.59032429133251207</v>
       </c>
       <c r="E22" s="21">
         <f>D16^2</f>
-        <v>0.73676044534613194</v>
+        <v>0.65963016717456102</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="E24" s="23">
         <f t="array" ref="E24:E27">MMULT(B19:E22,B24:B27)</f>
-        <v>2.1647418410607036E-2</v>
+        <v>1.9720016978313493E-3</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="23">
         <f>B$24*B19+B$25*C19+B$26*D19+B$27*E19</f>
-        <v>2.1647418410607036E-2</v>
+        <v>1.9720016978313493E-3</v>
       </c>
       <c r="K24" s="41">
         <f>E24-H24</f>
@@ -1534,11 +1543,11 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="24">
-        <v>-3.3490533158663523E-2</v>
+        <v>-4.5431228504802787E-2</v>
       </c>
       <c r="H25" s="24">
         <f>B$24*B20+B$25*C20+B$26*D20+B$27*E20</f>
-        <v>-3.3490533158663523E-2</v>
+        <v>-4.5431228504802787E-2</v>
       </c>
       <c r="K25" s="42">
         <f>E25-H25</f>
@@ -1553,11 +1562,11 @@
         <v>-0.1</v>
       </c>
       <c r="E26" s="24">
-        <v>-0.22388770395486457</v>
+        <v>-0.21673277333740507</v>
       </c>
       <c r="H26" s="24">
         <f>B$24*B21+B$25*C21+B$26*D21+B$27*E21</f>
-        <v>-0.22388770395486457</v>
+        <v>-0.21673277333740507</v>
       </c>
       <c r="K26" s="42">
         <f>E26-H26</f>
@@ -1569,11 +1578,11 @@
         <v>-0.2</v>
       </c>
       <c r="E27" s="25">
-        <v>-0.11557412433330472</v>
+        <v>-7.7872067857545663E-2</v>
       </c>
       <c r="H27" s="25">
         <f>B$24*B22+B$25*C22+B$26*D22+B$27*E22</f>
-        <v>-0.11557412433330472</v>
+        <v>-7.7872067857545663E-2</v>
       </c>
       <c r="K27" s="43">
         <f>E27-H27</f>
